--- a/docs/features/perf-tuning/Saral App MongoDB Tuning.xlsx
+++ b/docs/features/perf-tuning/Saral App MongoDB Tuning.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Collection Name</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>Shard</t>
+  </si>
+  <si>
+    <t>document examined before no index</t>
+  </si>
+  <si>
+    <t>document examined after</t>
   </si>
   <si>
     <t>Brand</t>
@@ -44,6 +50,44 @@
   </si>
   <si>
     <t>sh.shardCollection("saralv1.5.brands" , { "state" : "hashed", "schoolId":1})</t>
+  </si>
+  <si>
+    <t>state as collspan whereas schoolId
+ doesnot have .when we pass only state
+ then  "docsExamined": 6 are returning
+ when itis passing with schoolId then 
+only 1 doc is returned 
+2. { "state": { $exists: false }} 6 
+documents returned .</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">1. {"state": "up","schoolId": "09670702901"}
+doc examined: 1, index examined: 1
+2. { "state": { $exists: false }} 1 document examined  .
+no call span is present.
+fetch and IXSCAN is found 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>indexing</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> on state and schoolId</t>
+    </r>
   </si>
   <si>
     <t>Class</t>
@@ -58,6 +102,40 @@
 4. Mark.deleteMany({ schoolId: req.school.schoolId, studentId: student.studentId }
 5. Student.deleteMany(lookup).lean()
 6. Exam.deleteMany(match)</t>
+  </si>
+  <si>
+    <t>1. {schoolId: u001 } 
+colspan is present ,nReturned =9 
+doc examined = 38</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1. {schoolId: u001}
+doc examined =9
+doc returned = 9
+no colspan found
+fetch and IXSCAN is present and nreturned is 9 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>indexing</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> on schoolId</t>
+    </r>
   </si>
   <si>
     <t>Counter</t>
@@ -84,6 +162,49 @@
 7. Exam.updateOne(match, update).lean().exec()</t>
   </si>
   <si>
+    <t>1.  {"classId": '2',
+  "schoolId": 'u002',
+  "subject": 'Hindi',
+  "examDate": '11/10/2021'}
+colspan is present
+62 examined
+2. {examId : 12}
+doc examined is 1
+fetch and IXSCAN is present .</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1.   {
+"classId": '2',
+ "schoolId": 'u002',
+  "subject": 'Hindi',
+  "examDate": '11/10/2021'
+}
+after indexing colspan is not present 
+FETCH AND IXSCAN is present. nReturned :1  1 doc is examined . 1 doc returned
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>indexing</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> on classId, schoolId, subject , examDate</t>
+    </r>
+  </si>
+  <si>
     <t>Lock</t>
   </si>
   <si>
@@ -96,15 +217,8 @@
     <t>marks</t>
   </si>
   <si>
-    <t>1. Mark.findOne({ schoolId: data.schoolId, userId: data.userId, studentId: data.studentId, classId: data.classId, subject: data.subject, examDate: data.examDate, roiId: data.roiId })
-2. Mark.create(data)
-3. Mark.update(lookup, update)
-4. Mark.countDocuments("{}") -? 
-5. Mark.find({}
-6. Exams.find({})
-7. Class.find({})
-8. School.find({})
-9. Mark.find(match)</t>
+    <t>1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
+"section": "D"}</t>
   </si>
   <si>
     <t>ROI</t>
@@ -118,6 +232,39 @@
 3. ROI.findOne({ classId: examExist.classId, subject: examExist.subject, state: school.state, type: examExist.type }).lean()
 4. ROI.find(examSetLookupExist, { roiId: 1,roi:1 }).lean()
 5. Counter.findOneAndUpdate(match,update,options)</t>
+  </si>
+  <si>
+    <t>1. {"classId": "2", "subject": "Hindi", "state": "up", "type": "hindi_4s_20q_omr"}
+colspan is present =&gt; nreturned: 1 .
+ doc examined : 69
+doc returned: 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1. {"classId": "2", "subject": "Hindi", "state": "up", "type": "hindi_4s_20q_omr"}
+colspan is not present . doc examined : 1, doc returned:1
+fetch and IXSCAN is present  and returned 1 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Indexing</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> :- classId,subject,hindi,type</t>
+    </r>
   </si>
   <si>
     <t>School</t>
@@ -153,17 +300,60 @@
 8. Student.updateOne(lookup, updateData).lean().exec()</t>
   </si>
   <si>
+    <t>1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
+"section": "D"}
+Collspan is present
+"docsExamined": 346</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
+"section": "D"}
+Collspan is not present
+"docReturned" : 5
+"docsExamined": 38
+FETCH : nreturned 5
+IXSCAN: nreturned 5 , multikeyindex :- yes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Indexing</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> :- schoolId , studentClass, section</t>
+    </r>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
     <t>users</t>
+  </si>
+  <si>
+    <t>1.   await Users.findOne({ userId: userId, __v: 0})</t>
+  </si>
+  <si>
+    <t>index {userId: -1 }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -175,8 +365,18 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +387,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF6AA84F"/>
         <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,20 +416,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -448,7 +660,9 @@
     <col customWidth="1" min="2" max="2" width="17.75"/>
     <col customWidth="1" min="3" max="3" width="132.0"/>
     <col customWidth="1" min="4" max="4" width="28.63"/>
-    <col customWidth="1" min="5" max="5" width="54.88"/>
+    <col customWidth="1" min="5" max="5" width="58.88"/>
+    <col customWidth="1" min="6" max="6" width="68.5"/>
+    <col customWidth="1" min="7" max="7" width="73.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,136 +681,180 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/docs/features/perf-tuning/Saral App MongoDB Tuning.xlsx
+++ b/docs/features/perf-tuning/Saral App MongoDB Tuning.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\react-native\Project-Saral\docs\features\perf-tuning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34944581-B563-4D74-B84B-4EC3A1B3EF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Performance Changes" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="COLLSCAN queies on Dev" sheetId="2" r:id="rId5"/>
+    <sheet name="Performance Changes" sheetId="1" r:id="rId1"/>
+    <sheet name="COLLSCAN queies on Dev" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Collection Name</t>
   </si>
@@ -39,14 +48,6 @@
   </si>
   <si>
     <t>brands</t>
-  </si>
-  <si>
-    <t>1. School.findOne({ schoolId: req.school.schoolId }
-2. Brand.findOne({ state: "school.state", schoolId: school.schoolId }, { _id: 0, __v: 0, createdAt: 0, updatedAt: 0, state: 0 })
-3. Brand.find({ state: { $exists: false } }, { appName: 1, themeColor1: 1, themeColor2: 1, logoImage: 1, _id: 0 }).lean()</t>
-  </si>
-  <si>
-    <t>{ state: 'hashed', schoolId: 1 }</t>
   </si>
   <si>
     <t>sh.shardCollection("saralv1.5.brands" , { "state" : "hashed", "schoolId":1})</t>
@@ -61,35 +62,6 @@
 documents returned .</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">1. {"state": "up","schoolId": "09670702901"}
-doc examined: 1, index examined: 1
-2. { "state": { $exists: false }} 1 document examined  .
-no call span is present.
-fetch and IXSCAN is found 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>indexing</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> on state and schoolId</t>
-    </r>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -107,35 +79,6 @@
     <t>1. {schoolId: u001 } 
 colspan is present ,nReturned =9 
 doc examined = 38</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">1. {schoolId: u001}
-doc examined =9
-doc returned = 9
-no colspan found
-fetch and IXSCAN is present and nreturned is 9 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>indexing</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> on schoolId</t>
-    </r>
   </si>
   <si>
     <t>Counter</t>
@@ -173,12 +116,105 @@
 fetch and IXSCAN is present .</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">1.   {
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>locks</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
+"section": "D"}</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>rois</t>
+  </si>
+  <si>
+    <t>1. Exam.findOne({ examId: req.params.examId }).lean()
+2. School.findOne({ schoolId: req.school.schoolId }
+3. ROI.findOne({ classId: examExist.classId, subject: examExist.subject, state: school.state, type: examExist.type }).lean()
+4. ROI.find(examSetLookupExist, { roiId: 1,roi:1 }).lean()
+5. Counter.findOneAndUpdate(match,update,options)</t>
+  </si>
+  <si>
+    <t>1. {"classId": "2", "subject": "Hindi", "state": "up", "type": "hindi_4s_20q_omr"}
+colspan is present =&gt; nreturned: 1 .
+ doc examined : 69
+doc returned: 1</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>schools</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>1. Student.find(match, { _id: 0, __v: 0, createdAt: 0, updatedAt: 0 }).lean()
+2. Marks.findOne(lookup)
+3. Exam.find(examMatch, { _id: 0, __v: 0, createdAt: 0, updatedAt: 0 }
+4. Student.find(match, { _id: 0, __v: 0, createdAt: 0, updatedAt: 0 }
+5. Student.findOne({ studentId: req.params.studentId }
+6. Student.deleteOne(lookup).lean()
+7. Marks.findOneAndRemove(lookup).lean()
+8. Student.updateOne(lookup, updateData).lean().exec()</t>
+  </si>
+  <si>
+    <t>1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
+"section": "D"}
+Collspan is present
+"docsExamined": 346</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>1.   await Users.findOne({ userId: userId, __v: 0})</t>
+  </si>
+  <si>
+    <t>1. Brand.findOne({ state: "school.state", schoolId: school.schoolId }, { _id: 0, __v: 0, createdAt: 0, updatedAt: 0, state: 0 })
+2. Brand.find({ state: { $exists: false } }, { appName: 1, themeColor1: 1, themeColor2: 1, logoImage: 1, _id: 0 }).lean()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. {"state": "up","schoolId": "09670702901"}
+doc examined: 1, index examined: 1
+2. { "state": { $exists: false }} 1 document examined  .
+no call span is present.
+fetch and IXSCAN is found 
+</t>
+  </si>
+  <si>
+    <t>state and schoolId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> schoolId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. {schoolId: u001}
+doc examined =9
+doc returned = 9
+no colspan found
+fetch and IXSCAN is present and nreturned is 9 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.   {
 "classId": '2',
  "schoolId": 'u002',
   "subject": 'Hindi',
@@ -187,93 +223,12 @@
 after indexing colspan is not present 
 FETCH AND IXSCAN is present. nReturned :1  1 doc is examined . 1 doc returned
 </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>indexing</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> on classId, schoolId, subject , examDate</t>
-    </r>
-  </si>
-  <si>
-    <t>Lock</t>
-  </si>
-  <si>
-    <t>locks</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>marks</t>
-  </si>
-  <si>
-    <t>1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
-"section": "D"}</t>
-  </si>
-  <si>
-    <t>ROI</t>
-  </si>
-  <si>
-    <t>rois</t>
-  </si>
-  <si>
-    <t>1. Exam.findOne({ examId: req.params.examId }).lean()
-2. School.findOne({ schoolId: req.school.schoolId }
-3. ROI.findOne({ classId: examExist.classId, subject: examExist.subject, state: school.state, type: examExist.type }).lean()
-4. ROI.find(examSetLookupExist, { roiId: 1,roi:1 }).lean()
-5. Counter.findOneAndUpdate(match,update,options)</t>
-  </si>
-  <si>
-    <t>1. {"classId": "2", "subject": "Hindi", "state": "up", "type": "hindi_4s_20q_omr"}
-colspan is present =&gt; nreturned: 1 .
- doc examined : 69
-doc returned: 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">1. {"classId": "2", "subject": "Hindi", "state": "up", "type": "hindi_4s_20q_omr"}
-colspan is not present . doc examined : 1, doc returned:1
-fetch and IXSCAN is present  and returned 1 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Indexing</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> :- classId,subject,hindi,type</t>
-    </r>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>schools</t>
-  </si>
-  <si>
-    <t>"1. School.findOne({ schoolId: users.schoolId }
+  </si>
+  <si>
+    <t>classId, schoolId, subject , examDate</t>
+  </si>
+  <si>
+    <t>1. School.findOne({ schoolId: users.schoolId }
 2. classes.find({ schoolId }
 3. School.findOne({ schoolId: req.params.schoolId.toLowerCase() }
 4. School.deleteOne(lookup).lean()
@@ -284,34 +239,10 @@
 9. School.updateOne(lookup, update).lean().exec()"</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>students</t>
-  </si>
-  <si>
-    <t>1. Student.find(match, { _id: 0, __v: 0, createdAt: 0, updatedAt: 0 }).lean()
-2. Marks.findOne(lookup)
-3. Exam.find(examMatch, { _id: 0, __v: 0, createdAt: 0, updatedAt: 0 }
-4. Student.find(match, { _id: 0, __v: 0, createdAt: 0, updatedAt: 0 }
-5. Student.findOne({ studentId: req.params.studentId }
-6. Student.deleteOne(lookup).lean()
-7. Marks.findOneAndRemove(lookup).lean()
-8. Student.updateOne(lookup, updateData).lean().exec()</t>
-  </si>
-  <si>
-    <t>1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
-"section": "D"}
-Collspan is present
-"docsExamined": 346</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
+    <t>schoolId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
 "section": "D"}
 Collspan is not present
 "docReturned" : 5
@@ -319,75 +250,80 @@
 FETCH : nreturned 5
 IXSCAN: nreturned 5 , multikeyindex :- yes
 </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Indexing</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> :- schoolId , studentClass, section</t>
-    </r>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>1.   await Users.findOne({ userId: userId, __v: 0})</t>
-  </si>
-  <si>
-    <t>index {userId: -1 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> schoolId , studentClass, section</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. {"classId": "2", "subject": "Hindi", "state": "up", "type": "hindi_4s_20q_omr"}
+colspan is not present . doc examined : 1, doc returned:1
+fetch and IXSCAN is present  and returned 1 
+</t>
+  </si>
+  <si>
+    <t>classId,subject,hindi,type</t>
+  </si>
+  <si>
+    <t>schoold is unique key so doc examined was 1 and returned also 1</t>
+  </si>
+  <si>
+    <t>userld is unique key so doc examined was 1 and returned also 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -395,9 +331,27 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -411,49 +365,66 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -643,238 +614,263 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.0"/>
-    <col customWidth="1" min="2" max="2" width="17.75"/>
-    <col customWidth="1" min="3" max="3" width="132.0"/>
-    <col customWidth="1" min="4" max="4" width="28.63"/>
-    <col customWidth="1" min="5" max="5" width="58.88"/>
-    <col customWidth="1" min="6" max="6" width="68.5"/>
-    <col customWidth="1" min="7" max="7" width="73.13"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="132" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="58.88671875" customWidth="1"/>
+    <col min="6" max="6" width="56.88671875" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="G3" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="G5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="G8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="G10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/features/perf-tuning/Saral App MongoDB Tuning.xlsx
+++ b/docs/features/perf-tuning/Saral App MongoDB Tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\react-native\Project-Saral\docs\features\perf-tuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34944581-B563-4D74-B84B-4EC3A1B3EF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E3792-3C44-4264-B62B-C8A75D663B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,10 +128,6 @@
     <t>marks</t>
   </si>
   <si>
-    <t>1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
-"section": "D"}</t>
-  </si>
-  <si>
     <t>ROI</t>
   </si>
   <si>
@@ -271,6 +267,9 @@
   </si>
   <si>
     <t>userld is unique key so doc examined was 1 and returned also 1</t>
+  </si>
+  <si>
+    <t>1 Marks.bulkWrite(updates)     2.  Marks.find(match)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -626,13 +625,15 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="132" customWidth="1"/>
+    <col min="3" max="3" width="98" customWidth="1"/>
     <col min="4" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="5" width="58.88671875" customWidth="1"/>
     <col min="6" max="6" width="56.88671875" customWidth="1"/>
@@ -670,10 +671,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -682,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
@@ -696,17 +697,17 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -730,17 +731,17 @@
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -752,7 +753,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -760,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -768,86 +769,86 @@
     </row>
     <row r="8" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="132" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/features/perf-tuning/Saral App MongoDB Tuning.xlsx
+++ b/docs/features/perf-tuning/Saral App MongoDB Tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\react-native\Project-Saral\docs\features\perf-tuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E3792-3C44-4264-B62B-C8A75D663B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F913E094-9315-4192-856B-80C662CCA910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Collection Name</t>
   </si>
@@ -196,12 +196,6 @@
 </t>
   </si>
   <si>
-    <t>state and schoolId</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> schoolId</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. {schoolId: u001}
 doc examined =9
 doc returned = 9
@@ -221,9 +215,6 @@
 </t>
   </si>
   <si>
-    <t>classId, schoolId, subject , examDate</t>
-  </si>
-  <si>
     <t>1. School.findOne({ schoolId: users.schoolId }
 2. classes.find({ schoolId }
 3. School.findOne({ schoolId: req.params.schoolId.toLowerCase() }
@@ -235,9 +226,6 @@
 9. School.updateOne(lookup, update).lean().exec()"</t>
   </si>
   <si>
-    <t>schoolId</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. {"schoolId": "u001","studentClass":{$elemMatch:{"classId" : "2", "className": "Class-2"}},
 "section": "D"}
 Collspan is not present
@@ -248,21 +236,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> schoolId , studentClass, section</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. {"classId": "2", "subject": "Hindi", "state": "up", "type": "hindi_4s_20q_omr"}
 colspan is not present . doc examined : 1, doc returned:1
 fetch and IXSCAN is present  and returned 1 
 </t>
   </si>
   <si>
-    <t>classId,subject,hindi,type</t>
-  </si>
-  <si>
     <t>schoold is unique key so doc examined was 1 and returned also 1</t>
   </si>
   <si>
@@ -270,6 +249,26 @@
   </si>
   <si>
     <t>1 Marks.bulkWrite(updates)     2.  Marks.find(match)</t>
+  </si>
+  <si>
+    <t>{schoolId: -1}</t>
+  </si>
+  <si>
+    <t>{schoolId: -1, "studentClass.classId": -1,
+    "studentClass.className": -1,section: -1}</t>
+  </si>
+  <si>
+    <t>{classId: -1, subject: -1, state: -1, type: -1}</t>
+  </si>
+  <si>
+    <t>{userId: -1}</t>
+  </si>
+  <si>
+    <t>{state:-1, schoolId: -1}</t>
+  </si>
+  <si>
+    <t>{classId: -1, schoolId: -1, subject: -1, examDate: -1,examId: -1
+}</t>
   </si>
 </sst>
 </file>
@@ -625,8 +624,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -634,7 +633,7 @@
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="98" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
     <col min="5" max="5" width="58.88671875" customWidth="1"/>
     <col min="6" max="6" width="56.88671875" customWidth="1"/>
     <col min="7" max="7" width="55.109375" customWidth="1"/>
@@ -674,7 +673,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -697,14 +696,14 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -730,15 +729,15 @@
       <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>45</v>
+      <c r="D5" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -761,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -778,14 +777,14 @@
         <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="118.8" x14ac:dyDescent="0.25">
@@ -796,17 +795,17 @@
         <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="132" x14ac:dyDescent="0.25">
@@ -819,15 +818,15 @@
       <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>49</v>
+      <c r="D10" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -841,14 +840,14 @@
         <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
